--- a/src/main/resources/标准版.xlsx
+++ b/src/main/resources/标准版.xlsx
@@ -66,7 +66,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
           </rPr>
-          <t>用作推荐节目，建议15字以内</t>
+          <t>用作推荐节目，建议50字以内</t>
         </r>
       </text>
     </comment>
@@ -2807,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KP1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="KZ5" sqref="KZ5"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
